--- a/1 - Avant Projet/1 - Échanges/5 - Pré planning.xlsx
+++ b/1 - Avant Projet/1 - Échanges/5 - Pré planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom Grandjean\Documents\SeriousGame\Serious-Game-MMI\1 - Avant Projet\1 - Échanges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDE0796-FE46-4C67-9EE2-B4C32D0004AE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628384DB-6133-4786-AF84-3926CE360513}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{3905DA43-2096-4992-AF6D-67B244846A1E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Tâche</t>
   </si>
@@ -42,7 +42,34 @@
     <t>Étude logiciels</t>
   </si>
   <si>
-    <t>2/9</t>
+    <t>09/02</t>
+  </si>
+  <si>
+    <t>04/03</t>
+  </si>
+  <si>
+    <t>1 mois</t>
+  </si>
+  <si>
+    <t>Avant-Projet</t>
+  </si>
+  <si>
+    <t>Réalisation</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>Clôture</t>
+  </si>
+  <si>
+    <t>Début Juin</t>
+  </si>
+  <si>
+    <t>4 mois</t>
   </si>
 </sst>
 </file>
@@ -398,7 +425,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,24 +454,44 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
